--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code_files\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code_files\python\程序设计综合实践\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C374AE-F2E9-4974-9F90-2AA1B7BBAADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F03F65-3FE0-45C2-A8C7-E12059651D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{232BDF79-FAB4-45C5-9DCD-4FF453860DF6}"/>
   </bookViews>
@@ -517,8 +517,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -569,7 +569,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1415926500000002</v>
       </c>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code_files\python\程序设计综合实践\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F03F65-3FE0-45C2-A8C7-E12059651D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CDEB95-61CB-4A9F-9676-C7E2B44B8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{232BDF79-FAB4-45C5-9DCD-4FF453860DF6}"/>
   </bookViews>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690DD10C-EFCD-4F3F-AB44-4BDF3569E499}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,28 +549,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1415926500000002</v>
       </c>
@@ -589,8 +608,17 @@
       <c r="F8">
         <v>3158673298</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1</v>
       </c>
@@ -598,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>3</v>
       </c>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code_files\python\程序设计综合实践\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CDEB95-61CB-4A9F-9676-C7E2B44B8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C391EA5-75E3-43E6-8A2D-B5D54AEBE348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{232BDF79-FAB4-45C5-9DCD-4FF453860DF6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>kkk</t>
   </si>
@@ -89,6 +89,34 @@
   </si>
   <si>
     <t>我是老蒋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690DD10C-EFCD-4F3F-AB44-4BDF3569E499}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,7 +552,7 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +562,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,48 +585,65 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1415926500000002</v>
       </c>
@@ -608,17 +662,8 @@
       <c r="F8">
         <v>3158673298</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1</v>
       </c>
@@ -626,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>3</v>
       </c>
